--- a/artfynd/A 2729-2026 artfynd.xlsx
+++ b/artfynd/A 2729-2026 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131238351</v>
+        <v>131239702</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -709,24 +709,21 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>färska spår</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Hånåfljot, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464101</v>
+        <v>464187</v>
       </c>
       <c r="R2" t="n">
-        <v>6758095</v>
+        <v>6758040</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -763,7 +760,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack samt miljöbilder för området</t>
+          <t>2 bild, gran kåda</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131239702</v>
+        <v>131238351</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -819,21 +816,24 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>färska spår</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Hånåfljot, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464187</v>
+        <v>464101</v>
       </c>
       <c r="R3" t="n">
-        <v>6758040</v>
+        <v>6758095</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,7 +870,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2 bild, gran kåda</t>
+          <t>Ringhack samt miljöbilder för området</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 2729-2026 artfynd.xlsx
+++ b/artfynd/A 2729-2026 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131239702</v>
+        <v>131238351</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -709,21 +709,24 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>färska spår</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Hånåfljot, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464187</v>
+        <v>464101</v>
       </c>
       <c r="R2" t="n">
-        <v>6758040</v>
+        <v>6758095</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,7 +763,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2 bild, gran kåda</t>
+          <t>Ringhack samt miljöbilder för området</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +790,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131238351</v>
+        <v>131239702</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -816,24 +819,21 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>färska spår</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Hånåfljot, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464101</v>
+        <v>464187</v>
       </c>
       <c r="R3" t="n">
-        <v>6758095</v>
+        <v>6758040</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,7 +870,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack samt miljöbilder för området</t>
+          <t>2 bild, gran kåda</t>
         </is>
       </c>
       <c r="AD3" t="b">
